--- a/Pre Research Works/Extracted_Units_Updated.xlsx
+++ b/Pre Research Works/Extracted_Units_Updated.xlsx
@@ -473,24 +473,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>introduction to digital image and video processing</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
+          <t>Concepts of Data Analytics: Descriptive, Diagnostic, Predictive, Prescriptive analytics - Big Data characteristics: Volume, Velocity, Variety, Veracity of data - Types of data: Structured, Unstructured, Semi-Structured, Metadata - Introduction to Hadoop Scaling - Distributed Framework -Hadoop v/s RDBMS-Brief history of Hadoop.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>apply the image and video analysis approaches to solve real world problems</t>
+          <t>understand the big data concepts in real time scenario</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.2325973172734696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -501,24 +501,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>image and video enhancement and restoration</t>
+          <t>big data architecture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
+          <t>Standard Big data architecture - Big data application - Hadoop framework - HDFS Design goal - Master Slave architecture - Block System - Read-write Process for data - Installing HDFS - Executing in HDFS: Reading and writing Local files and Data streams into HDFS - Types of files in HDFS - Strengths and alternatives of HDFS - Concept of YARN. Apache Hadoop Moving Data in and out of Hadoop Understanding inputs and outputs of MapReduce - Problems with traditional large-scale systems-Requirements for a new approach.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>develop proficiency in image enhancement and segmentation</t>
+          <t>analyze the big data under spark architecture</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.3509950511201284</v>
+        <v>0.5268136892435387</v>
       </c>
     </row>
     <row r="4">
@@ -529,24 +529,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>image and video compression</t>
+          <t>parallel processing with mapreduce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
+          <t>Introduction to MapReduce - Sample MapReduce application: Wordcount - MapReduce Data types and Formats - Writing MapReduce Programming - Testing MapReduce Programs - MapReduce Job Execution - Shuffle and Sort - Managing Failures - Progress and Status Updates. MapReduce Programs: Using languages other than Java with Hadoop, Analyzing a large dataset.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>understand the fundamental principles of image and video analysis</t>
+          <t>demonstrate an ability to use hadoop framework for processing big data for analytics</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.2286463650054271</v>
+        <v>0.08574466264484321</v>
       </c>
     </row>
     <row r="5">
@@ -557,24 +557,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>feature detection and description</t>
+          <t>hive and pig</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
+          <t>Hive Architecture - Components - Data Definition - Partitioning - Data Manipulation - Joins, Views and Indexes - Hive Execution - Pig Architecture - Pig Latin Data Model - Latin Operators - Loading Data - Diagnostic Operators - Group Operators - Pig Joins - Row Level Operators - Pig Built-in function - User defined functions - Pig Scripts.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>develop skills in object detection and recognition</t>
+          <t>demonstrate the programming of big data using hive and pig environments</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1964929852033372</v>
+        <v>0.5247991960469408</v>
       </c>
     </row>
     <row r="6">
@@ -585,24 +585,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>object detection and recognition</t>
+          <t>stream processing with spark</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
+          <t>Stream processing Models and Tools - Apache Spark - Spark Architecture: Resilient Distributed Datasets, Directed Acyclic Graph - Spark Ecosystem - Spark for Big Data Processing: MLlib, Spark GraphX, SparkR, SparkSQL, Spark Streaming - Spark versus Hadoop . PySpark + NumPy + SciPy, Code Optimization.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>develop skills in object detection and recognition</t>
+          <t>analyze the big data under spark architecture</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6822268245187914</v>
+        <v>0.1959902092143908</v>
       </c>
     </row>
   </sheetData>

--- a/Pre Research Works/Extracted_Units_Updated.xlsx
+++ b/Pre Research Works/Extracted_Units_Updated.xlsx
@@ -473,24 +473,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>introduction to digital image and video processing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Concepts of Data Analytics: Descriptive, Diagnostic, Predictive, Prescriptive analytics - Big Data characteristics: Volume, Velocity, Variety, Veracity of data - Types of data: Structured, Unstructured, Semi-Structured, Metadata - Introduction to Hadoop Scaling - Distributed Framework -Hadoop v/s RDBMS-Brief history of Hadoop.</t>
+          <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>understand the big data concepts in real time scenario</t>
+          <t>apply the image and video analysis approaches to solve real world problems</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2325973172734696</v>
       </c>
     </row>
     <row r="3">
@@ -501,24 +501,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>big data architecture</t>
+          <t>image and video enhancement and restoration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Standard Big data architecture - Big data application - Hadoop framework - HDFS Design goal - Master Slave architecture - Block System - Read-write Process for data - Installing HDFS - Executing in HDFS: Reading and writing Local files and Data streams into HDFS - Types of files in HDFS - Strengths and alternatives of HDFS - Concept of YARN. Apache Hadoop Moving Data in and out of Hadoop Understanding inputs and outputs of MapReduce - Problems with traditional large-scale systems-Requirements for a new approach.</t>
+          <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>analyze the big data under spark architecture</t>
+          <t>develop proficiency in image enhancement and segmentation</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5268136892435387</v>
+        <v>0.3509950511201284</v>
       </c>
     </row>
     <row r="4">
@@ -529,24 +529,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>parallel processing with mapreduce</t>
+          <t>image and video compression</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Introduction to MapReduce - Sample MapReduce application: Wordcount - MapReduce Data types and Formats - Writing MapReduce Programming - Testing MapReduce Programs - MapReduce Job Execution - Shuffle and Sort - Managing Failures - Progress and Status Updates. MapReduce Programs: Using languages other than Java with Hadoop, Analyzing a large dataset.</t>
+          <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>demonstrate an ability to use hadoop framework for processing big data for analytics</t>
+          <t>understand the fundamental principles of image and video analysis</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.08574466264484321</v>
+        <v>0.2286463650054271</v>
       </c>
     </row>
     <row r="5">
@@ -557,24 +557,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hive and pig</t>
+          <t>feature detection and description</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hive Architecture - Components - Data Definition - Partitioning - Data Manipulation - Joins, Views and Indexes - Hive Execution - Pig Architecture - Pig Latin Data Model - Latin Operators - Loading Data - Diagnostic Operators - Group Operators - Pig Joins - Row Level Operators - Pig Built-in function - User defined functions - Pig Scripts.</t>
+          <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>demonstrate the programming of big data using hive and pig environments</t>
+          <t>develop skills in object detection and recognition</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5247991960469408</v>
+        <v>0.1964929852033372</v>
       </c>
     </row>
     <row r="6">
@@ -585,24 +585,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stream processing with spark</t>
+          <t>object detection and recognition</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stream processing Models and Tools - Apache Spark - Spark Architecture: Resilient Distributed Datasets, Directed Acyclic Graph - Spark Ecosystem - Spark for Big Data Processing: MLlib, Spark GraphX, SparkR, SparkSQL, Spark Streaming - Spark versus Hadoop . PySpark + NumPy + SciPy, Code Optimization.</t>
+          <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>analyze the big data under spark architecture</t>
+          <t>develop skills in object detection and recognition</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1959902092143908</v>
+        <v>0.6822268245187914</v>
       </c>
     </row>
   </sheetData>
